--- a/chapter 3/Grouping.xlsx
+++ b/chapter 3/Grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D94677F9-3F7D-413D-AF1E-D588E3C6E4A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B082E6-A9F5-134B-A9FF-DFCF988C1E66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,17 +471,17 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -509,7 +509,7 @@
         <v>575572</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -523,7 +523,7 @@
         <v>510989</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -537,7 +537,7 @@
         <v>460289</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -551,7 +551,7 @@
         <v>506853</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -565,7 +565,7 @@
         <v>363981</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -579,7 +579,7 @@
         <v>328243</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -593,7 +593,7 @@
         <v>445099</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -607,7 +607,7 @@
         <v>465944</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -621,7 +621,7 @@
         <v>408157</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -635,7 +635,7 @@
         <v>225542</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -649,7 +649,7 @@
         <v>549089</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -663,7 +663,7 @@
         <v>407128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -677,7 +677,7 @@
         <v>556748</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -691,7 +691,7 @@
         <v>323859</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -705,7 +705,7 @@
         <v>529446</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -719,7 +719,7 @@
         <v>262521</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -733,7 +733,7 @@
         <v>540101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -747,7 +747,7 @@
         <v>411238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -761,7 +761,7 @@
         <v>524391</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -775,7 +775,7 @@
         <v>238742</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -789,7 +789,7 @@
         <v>294916</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -803,7 +803,7 @@
         <v>588819</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -817,7 +817,7 @@
         <v>273156</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
